--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Efnb2-Epha4.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Efnb2-Epha4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>38.0563225123984</v>
+        <v>38.969508</v>
       </c>
       <c r="H2">
-        <v>38.0563225123984</v>
+        <v>116.908524</v>
       </c>
       <c r="I2">
-        <v>0.6901993009273303</v>
+        <v>0.688733638790647</v>
       </c>
       <c r="J2">
-        <v>0.6901993009273303</v>
+        <v>0.688733638790647</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.48556067080587</v>
+        <v>7.839997333333334</v>
       </c>
       <c r="N2">
-        <v>7.48556067080587</v>
+        <v>23.519992</v>
       </c>
       <c r="O2">
-        <v>0.3910429977859032</v>
+        <v>0.3930770090432645</v>
       </c>
       <c r="P2">
-        <v>0.3910429977859032</v>
+        <v>0.3930770090432645</v>
       </c>
       <c r="Q2">
-        <v>284.8729110743135</v>
+        <v>305.520838801312</v>
       </c>
       <c r="R2">
-        <v>284.8729110743135</v>
+        <v>2749.687549211808</v>
       </c>
       <c r="S2">
-        <v>0.269897603704358</v>
+        <v>0.2707253587633116</v>
       </c>
       <c r="T2">
-        <v>0.269897603704358</v>
+        <v>0.2707253587633116</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>38.0563225123984</v>
+        <v>38.969508</v>
       </c>
       <c r="H3">
-        <v>38.0563225123984</v>
+        <v>116.908524</v>
       </c>
       <c r="I3">
-        <v>0.6901993009273303</v>
+        <v>0.688733638790647</v>
       </c>
       <c r="J3">
-        <v>0.6901993009273303</v>
+        <v>0.688733638790647</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>11.1790713620364</v>
+        <v>11.57455166666667</v>
       </c>
       <c r="N3">
-        <v>11.1790713620364</v>
+        <v>34.723655</v>
       </c>
       <c r="O3">
-        <v>0.583990668183661</v>
+        <v>0.5803178185796234</v>
       </c>
       <c r="P3">
-        <v>0.583990668183661</v>
+        <v>0.5803178185796235</v>
       </c>
       <c r="Q3">
-        <v>425.4343451427741</v>
+        <v>451.0545837705799</v>
       </c>
       <c r="R3">
-        <v>425.4343451427741</v>
+        <v>4059.49125393522</v>
       </c>
       <c r="S3">
-        <v>0.4030699509284473</v>
+        <v>0.3996844028453945</v>
       </c>
       <c r="T3">
-        <v>0.4030699509284473</v>
+        <v>0.3996844028453946</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,60 +655,60 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>38.0563225123984</v>
+        <v>38.969508</v>
       </c>
       <c r="H4">
-        <v>38.0563225123984</v>
+        <v>116.908524</v>
       </c>
       <c r="I4">
-        <v>0.6901993009273303</v>
+        <v>0.688733638790647</v>
       </c>
       <c r="J4">
-        <v>0.6901993009273303</v>
+        <v>0.688733638790647</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.4779193315584</v>
+        <v>0.04482366666666667</v>
       </c>
       <c r="N4">
-        <v>0.4779193315584</v>
+        <v>0.134471</v>
       </c>
       <c r="O4">
-        <v>0.02496633403043571</v>
+        <v>0.002247341686300608</v>
       </c>
       <c r="P4">
-        <v>0.02496633403043571</v>
+        <v>0.002247341686300608</v>
       </c>
       <c r="Q4">
-        <v>18.18785221669634</v>
+        <v>1.746756236756</v>
       </c>
       <c r="R4">
-        <v>18.18785221669634</v>
+        <v>15.720806130804</v>
       </c>
       <c r="S4">
-        <v>0.01723174629452494</v>
+        <v>0.001547819817211727</v>
       </c>
       <c r="T4">
-        <v>0.01723174629452494</v>
+        <v>0.001547819817211727</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,55 +717,55 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>9.677459575428619</v>
+        <v>38.969508</v>
       </c>
       <c r="H5">
-        <v>9.677459575428619</v>
+        <v>116.908524</v>
       </c>
       <c r="I5">
-        <v>0.1755129080466787</v>
+        <v>0.688733638790647</v>
       </c>
       <c r="J5">
-        <v>0.1755129080466787</v>
+        <v>0.688733638790647</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.48556067080587</v>
+        <v>0.4858216666666667</v>
       </c>
       <c r="N5">
-        <v>7.48556067080587</v>
+        <v>1.457465</v>
       </c>
       <c r="O5">
-        <v>0.3910429977859032</v>
+        <v>0.02435783069081152</v>
       </c>
       <c r="P5">
-        <v>0.3910429977859032</v>
+        <v>0.02435783069081152</v>
       </c>
       <c r="Q5">
-        <v>72.44121079114214</v>
+        <v>18.93223132574</v>
       </c>
       <c r="R5">
-        <v>72.44121079114214</v>
+        <v>170.39008193166</v>
       </c>
       <c r="S5">
-        <v>0.06863309371269483</v>
+        <v>0.01677605736472912</v>
       </c>
       <c r="T5">
-        <v>0.06863309371269483</v>
+        <v>0.01677605736472912</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,55 +779,55 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>9.677459575428619</v>
+        <v>9.685730333333334</v>
       </c>
       <c r="H6">
-        <v>9.677459575428619</v>
+        <v>29.057191</v>
       </c>
       <c r="I6">
-        <v>0.1755129080466787</v>
+        <v>0.1711822560557247</v>
       </c>
       <c r="J6">
-        <v>0.1755129080466787</v>
+        <v>0.1711822560557247</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>11.1790713620364</v>
+        <v>7.839997333333334</v>
       </c>
       <c r="N6">
-        <v>11.1790713620364</v>
+        <v>23.519992</v>
       </c>
       <c r="O6">
-        <v>0.583990668183661</v>
+        <v>0.3930770090432645</v>
       </c>
       <c r="P6">
-        <v>0.583990668183661</v>
+        <v>0.3930770090432645</v>
       </c>
       <c r="Q6">
-        <v>108.185011196939</v>
+        <v>75.93609998471912</v>
       </c>
       <c r="R6">
-        <v>108.185011196939</v>
+        <v>683.4248998624721</v>
       </c>
       <c r="S6">
-        <v>0.1024979004450374</v>
+        <v>0.06728780921166252</v>
       </c>
       <c r="T6">
-        <v>0.1024979004450374</v>
+        <v>0.06728780921166252</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,60 +841,60 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>9.677459575428619</v>
+        <v>9.685730333333334</v>
       </c>
       <c r="H7">
-        <v>9.677459575428619</v>
+        <v>29.057191</v>
       </c>
       <c r="I7">
-        <v>0.1755129080466787</v>
+        <v>0.1711822560557247</v>
       </c>
       <c r="J7">
-        <v>0.1755129080466787</v>
+        <v>0.1711822560557247</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.4779193315584</v>
+        <v>11.57455166666667</v>
       </c>
       <c r="N7">
-        <v>0.4779193315584</v>
+        <v>34.723655</v>
       </c>
       <c r="O7">
-        <v>0.02496633403043571</v>
+        <v>0.5803178185796234</v>
       </c>
       <c r="P7">
-        <v>0.02496633403043571</v>
+        <v>0.5803178185796235</v>
       </c>
       <c r="Q7">
-        <v>4.625045011472283</v>
+        <v>112.1079861725672</v>
       </c>
       <c r="R7">
-        <v>4.625045011472283</v>
+        <v>1008.971875553105</v>
       </c>
       <c r="S7">
-        <v>0.004381913888946529</v>
+        <v>0.0993401134137967</v>
       </c>
       <c r="T7">
-        <v>0.004381913888946529</v>
+        <v>0.09934011341379673</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,60 +903,60 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.559564399262086</v>
+        <v>9.685730333333334</v>
       </c>
       <c r="H8">
-        <v>0.559564399262086</v>
+        <v>29.057191</v>
       </c>
       <c r="I8">
-        <v>0.01014840456716986</v>
+        <v>0.1711822560557247</v>
       </c>
       <c r="J8">
-        <v>0.01014840456716986</v>
+        <v>0.1711822560557247</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>7.48556067080587</v>
+        <v>0.04482366666666667</v>
       </c>
       <c r="N8">
-        <v>7.48556067080587</v>
+        <v>0.134471</v>
       </c>
       <c r="O8">
-        <v>0.3910429977859032</v>
+        <v>0.002247341686300608</v>
       </c>
       <c r="P8">
-        <v>0.3910429977859032</v>
+        <v>0.002247341686300608</v>
       </c>
       <c r="Q8">
-        <v>4.188653259899384</v>
+        <v>0.4341499478845556</v>
       </c>
       <c r="R8">
-        <v>4.188653259899384</v>
+        <v>3.907349530961</v>
       </c>
       <c r="S8">
-        <v>0.003968462544690255</v>
+        <v>0.0003847050199890149</v>
       </c>
       <c r="T8">
-        <v>0.003968462544690255</v>
+        <v>0.0003847050199890149</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,55 +965,55 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.559564399262086</v>
+        <v>9.685730333333334</v>
       </c>
       <c r="H9">
-        <v>0.559564399262086</v>
+        <v>29.057191</v>
       </c>
       <c r="I9">
-        <v>0.01014840456716986</v>
+        <v>0.1711822560557247</v>
       </c>
       <c r="J9">
-        <v>0.01014840456716986</v>
+        <v>0.1711822560557247</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>11.1790713620364</v>
+        <v>0.4858216666666667</v>
       </c>
       <c r="N9">
-        <v>11.1790713620364</v>
+        <v>1.457465</v>
       </c>
       <c r="O9">
-        <v>0.583990668183661</v>
+        <v>0.02435783069081152</v>
       </c>
       <c r="P9">
-        <v>0.583990668183661</v>
+        <v>0.02435783069081152</v>
       </c>
       <c r="Q9">
-        <v>6.255410351005888</v>
+        <v>4.705537653423889</v>
       </c>
       <c r="R9">
-        <v>6.255410351005888</v>
+        <v>42.34983888081501</v>
       </c>
       <c r="S9">
-        <v>0.005926573564179646</v>
+        <v>0.004169628410276488</v>
       </c>
       <c r="T9">
-        <v>0.005926573564179646</v>
+        <v>0.004169628410276488</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.559564399262086</v>
+        <v>0.6067633333333333</v>
       </c>
       <c r="H10">
-        <v>0.559564399262086</v>
+        <v>1.82029</v>
       </c>
       <c r="I10">
-        <v>0.01014840456716986</v>
+        <v>0.01072372580252768</v>
       </c>
       <c r="J10">
-        <v>0.01014840456716986</v>
+        <v>0.01072372580252768</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.4779193315584</v>
+        <v>7.839997333333334</v>
       </c>
       <c r="N10">
-        <v>0.4779193315584</v>
+        <v>23.519992</v>
       </c>
       <c r="O10">
-        <v>0.02496633403043571</v>
+        <v>0.3930770090432645</v>
       </c>
       <c r="P10">
-        <v>0.02496633403043571</v>
+        <v>0.3930770090432645</v>
       </c>
       <c r="Q10">
-        <v>0.2674266436592138</v>
+        <v>4.757022915297778</v>
       </c>
       <c r="R10">
-        <v>0.2674266436592138</v>
+        <v>42.81320623768</v>
       </c>
       <c r="S10">
-        <v>0.0002533684582999622</v>
+        <v>0.004215250064257663</v>
       </c>
       <c r="T10">
-        <v>0.0002533684582999622</v>
+        <v>0.004215250064257663</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,122 +1089,122 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.395774929194067</v>
+        <v>0.6067633333333333</v>
       </c>
       <c r="H11">
-        <v>0.395774929194067</v>
+        <v>1.82029</v>
       </c>
       <c r="I11">
-        <v>0.007177876405827559</v>
+        <v>0.01072372580252768</v>
       </c>
       <c r="J11">
-        <v>0.007177876405827559</v>
+        <v>0.01072372580252768</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>7.48556067080587</v>
+        <v>11.57455166666667</v>
       </c>
       <c r="N11">
-        <v>7.48556067080587</v>
+        <v>34.723655</v>
       </c>
       <c r="O11">
-        <v>0.3910429977859032</v>
+        <v>0.5803178185796234</v>
       </c>
       <c r="P11">
-        <v>0.3910429977859032</v>
+        <v>0.5803178185796235</v>
       </c>
       <c r="Q11">
-        <v>2.962597244466086</v>
+        <v>7.023013551105556</v>
       </c>
       <c r="R11">
-        <v>2.962597244466086</v>
+        <v>63.20712195995</v>
       </c>
       <c r="S11">
-        <v>0.002806858307471513</v>
+        <v>0.006223169164768887</v>
       </c>
       <c r="T11">
-        <v>0.002806858307471513</v>
+        <v>0.006223169164768888</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.395774929194067</v>
+        <v>0.6067633333333333</v>
       </c>
       <c r="H12">
-        <v>0.395774929194067</v>
+        <v>1.82029</v>
       </c>
       <c r="I12">
-        <v>0.007177876405827559</v>
+        <v>0.01072372580252768</v>
       </c>
       <c r="J12">
-        <v>0.007177876405827559</v>
+        <v>0.01072372580252768</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>11.1790713620364</v>
+        <v>0.04482366666666667</v>
       </c>
       <c r="N12">
-        <v>11.1790713620364</v>
+        <v>0.134471</v>
       </c>
       <c r="O12">
-        <v>0.583990668183661</v>
+        <v>0.002247341686300608</v>
       </c>
       <c r="P12">
-        <v>0.583990668183661</v>
+        <v>0.002247341686300608</v>
       </c>
       <c r="Q12">
-        <v>4.424396176765378</v>
+        <v>0.02719735739888889</v>
       </c>
       <c r="R12">
-        <v>4.424396176765378</v>
+        <v>0.24477621659</v>
       </c>
       <c r="S12">
-        <v>0.004191812838378971</v>
+        <v>2.409987602847791E-05</v>
       </c>
       <c r="T12">
-        <v>0.004191812838378971</v>
+        <v>2.409987602847791E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1216,57 +1216,57 @@
         <v>24</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.395774929194067</v>
+        <v>0.6067633333333333</v>
       </c>
       <c r="H13">
-        <v>0.395774929194067</v>
+        <v>1.82029</v>
       </c>
       <c r="I13">
-        <v>0.007177876405827559</v>
+        <v>0.01072372580252768</v>
       </c>
       <c r="J13">
-        <v>0.007177876405827559</v>
+        <v>0.01072372580252768</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.4779193315584</v>
+        <v>0.4858216666666667</v>
       </c>
       <c r="N13">
-        <v>0.4779193315584</v>
+        <v>1.457465</v>
       </c>
       <c r="O13">
-        <v>0.02496633403043571</v>
+        <v>0.02435783069081152</v>
       </c>
       <c r="P13">
-        <v>0.02496633403043571</v>
+        <v>0.02435783069081152</v>
       </c>
       <c r="Q13">
-        <v>0.1891484896080016</v>
+        <v>0.2947787738722222</v>
       </c>
       <c r="R13">
-        <v>0.1891484896080016</v>
+        <v>2.65300896485</v>
       </c>
       <c r="S13">
-        <v>0.0001792052599770741</v>
+        <v>0.0002612066974726562</v>
       </c>
       <c r="T13">
-        <v>0.0001792052599770741</v>
+        <v>0.0002612066974726562</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1278,57 +1278,57 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>6.44904296792746</v>
+        <v>0.4787493333333333</v>
       </c>
       <c r="H14">
-        <v>6.44904296792746</v>
+        <v>1.436248</v>
       </c>
       <c r="I14">
-        <v>0.1169615100529935</v>
+        <v>0.008461250535040448</v>
       </c>
       <c r="J14">
-        <v>0.1169615100529935</v>
+        <v>0.008461250535040449</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>7.48556067080587</v>
+        <v>7.839997333333334</v>
       </c>
       <c r="N14">
-        <v>7.48556067080587</v>
+        <v>23.519992</v>
       </c>
       <c r="O14">
-        <v>0.3910429977859032</v>
+        <v>0.3930770090432645</v>
       </c>
       <c r="P14">
-        <v>0.3910429977859032</v>
+        <v>0.3930770090432645</v>
       </c>
       <c r="Q14">
-        <v>48.27470240505496</v>
+        <v>3.753393496668445</v>
       </c>
       <c r="R14">
-        <v>48.27470240505496</v>
+        <v>33.780541470016</v>
       </c>
       <c r="S14">
-        <v>0.04573697951668863</v>
+        <v>0.00332592305307942</v>
       </c>
       <c r="T14">
-        <v>0.04573697951668863</v>
+        <v>0.003325923053079421</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1340,114 +1340,424 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>6.44904296792746</v>
+        <v>0.4787493333333333</v>
       </c>
       <c r="H15">
-        <v>6.44904296792746</v>
+        <v>1.436248</v>
       </c>
       <c r="I15">
-        <v>0.1169615100529935</v>
+        <v>0.008461250535040448</v>
       </c>
       <c r="J15">
-        <v>0.1169615100529935</v>
+        <v>0.008461250535040449</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>11.1790713620364</v>
+        <v>11.57455166666667</v>
       </c>
       <c r="N15">
-        <v>11.1790713620364</v>
+        <v>34.723655</v>
       </c>
       <c r="O15">
-        <v>0.583990668183661</v>
+        <v>0.5803178185796234</v>
       </c>
       <c r="P15">
-        <v>0.583990668183661</v>
+        <v>0.5803178185796235</v>
       </c>
       <c r="Q15">
-        <v>72.0943115553001</v>
+        <v>5.541308894048888</v>
       </c>
       <c r="R15">
-        <v>72.0943115553001</v>
+        <v>49.87178004644</v>
       </c>
       <c r="S15">
-        <v>0.06830443040761765</v>
+        <v>0.004910214452950344</v>
       </c>
       <c r="T15">
-        <v>0.06830443040761765</v>
+        <v>0.004910214452950346</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.4787493333333333</v>
+      </c>
+      <c r="H16">
+        <v>1.436248</v>
+      </c>
+      <c r="I16">
+        <v>0.008461250535040448</v>
+      </c>
+      <c r="J16">
+        <v>0.008461250535040449</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.04482366666666667</v>
+      </c>
+      <c r="N16">
+        <v>0.134471</v>
+      </c>
+      <c r="O16">
+        <v>0.002247341686300608</v>
+      </c>
+      <c r="P16">
+        <v>0.002247341686300608</v>
+      </c>
+      <c r="Q16">
+        <v>0.02145930053422222</v>
+      </c>
+      <c r="R16">
+        <v>0.193133704808</v>
+      </c>
+      <c r="S16">
+        <v>1.901532104562972E-05</v>
+      </c>
+      <c r="T16">
+        <v>1.901532104562973E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
         <v>24</v>
       </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.4787493333333333</v>
+      </c>
+      <c r="H17">
+        <v>1.436248</v>
+      </c>
+      <c r="I17">
+        <v>0.008461250535040448</v>
+      </c>
+      <c r="J17">
+        <v>0.008461250535040449</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.4858216666666667</v>
+      </c>
+      <c r="N17">
+        <v>1.457465</v>
+      </c>
+      <c r="O17">
+        <v>0.02435783069081152</v>
+      </c>
+      <c r="P17">
+        <v>0.02435783069081152</v>
+      </c>
+      <c r="Q17">
+        <v>0.2325867990355555</v>
+      </c>
+      <c r="R17">
+        <v>2.09328119132</v>
+      </c>
+      <c r="S17">
+        <v>0.0002060977079650536</v>
+      </c>
+      <c r="T17">
+        <v>0.0002060977079650537</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
         <v>24</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>6.44904296792746</v>
-      </c>
-      <c r="H16">
-        <v>6.44904296792746</v>
-      </c>
-      <c r="I16">
-        <v>0.1169615100529935</v>
-      </c>
-      <c r="J16">
-        <v>0.1169615100529935</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>0.4779193315584</v>
-      </c>
-      <c r="N16">
-        <v>0.4779193315584</v>
-      </c>
-      <c r="O16">
-        <v>0.02496633403043571</v>
-      </c>
-      <c r="P16">
-        <v>0.02496633403043571</v>
-      </c>
-      <c r="Q16">
-        <v>3.082122304423292</v>
-      </c>
-      <c r="R16">
-        <v>3.082122304423292</v>
-      </c>
-      <c r="S16">
-        <v>0.002920100128687199</v>
-      </c>
-      <c r="T16">
-        <v>0.002920100128687199</v>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>6.840640999999999</v>
+      </c>
+      <c r="H18">
+        <v>20.521923</v>
+      </c>
+      <c r="I18">
+        <v>0.1208991288160602</v>
+      </c>
+      <c r="J18">
+        <v>0.1208991288160602</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>7.839997333333334</v>
+      </c>
+      <c r="N18">
+        <v>23.519992</v>
+      </c>
+      <c r="O18">
+        <v>0.3930770090432645</v>
+      </c>
+      <c r="P18">
+        <v>0.3930770090432645</v>
+      </c>
+      <c r="Q18">
+        <v>53.63060719829066</v>
+      </c>
+      <c r="R18">
+        <v>482.675464784616</v>
+      </c>
+      <c r="S18">
+        <v>0.04752266795095331</v>
+      </c>
+      <c r="T18">
+        <v>0.04752266795095331</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>6.840640999999999</v>
+      </c>
+      <c r="H19">
+        <v>20.521923</v>
+      </c>
+      <c r="I19">
+        <v>0.1208991288160602</v>
+      </c>
+      <c r="J19">
+        <v>0.1208991288160602</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>11.57455166666667</v>
+      </c>
+      <c r="N19">
+        <v>34.723655</v>
+      </c>
+      <c r="O19">
+        <v>0.5803178185796234</v>
+      </c>
+      <c r="P19">
+        <v>0.5803178185796235</v>
+      </c>
+      <c r="Q19">
+        <v>79.17735268761832</v>
+      </c>
+      <c r="R19">
+        <v>712.5961741885649</v>
+      </c>
+      <c r="S19">
+        <v>0.07015991870271296</v>
+      </c>
+      <c r="T19">
+        <v>0.07015991870271297</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>6.840640999999999</v>
+      </c>
+      <c r="H20">
+        <v>20.521923</v>
+      </c>
+      <c r="I20">
+        <v>0.1208991288160602</v>
+      </c>
+      <c r="J20">
+        <v>0.1208991288160602</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M20">
+        <v>0.04482366666666667</v>
+      </c>
+      <c r="N20">
+        <v>0.134471</v>
+      </c>
+      <c r="O20">
+        <v>0.002247341686300608</v>
+      </c>
+      <c r="P20">
+        <v>0.002247341686300608</v>
+      </c>
+      <c r="Q20">
+        <v>0.3066226119703333</v>
+      </c>
+      <c r="R20">
+        <v>2.759603507733</v>
+      </c>
+      <c r="S20">
+        <v>0.0002717016520257592</v>
+      </c>
+      <c r="T20">
+        <v>0.0002717016520257592</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>6.840640999999999</v>
+      </c>
+      <c r="H21">
+        <v>20.521923</v>
+      </c>
+      <c r="I21">
+        <v>0.1208991288160602</v>
+      </c>
+      <c r="J21">
+        <v>0.1208991288160602</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.4858216666666667</v>
+      </c>
+      <c r="N21">
+        <v>1.457465</v>
+      </c>
+      <c r="O21">
+        <v>0.02435783069081152</v>
+      </c>
+      <c r="P21">
+        <v>0.02435783069081152</v>
+      </c>
+      <c r="Q21">
+        <v>3.323331611688332</v>
+      </c>
+      <c r="R21">
+        <v>29.90998450519499</v>
+      </c>
+      <c r="S21">
+        <v>0.002944840510368207</v>
+      </c>
+      <c r="T21">
+        <v>0.002944840510368207</v>
       </c>
     </row>
   </sheetData>
